--- a/docs/画面項目定義書/image_management/image_detail.xlsx
+++ b/docs/画面項目定義書/image_management/image_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\image_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\git\Kamata-Cloud-Infrastructure\docs\画面項目定義書\image_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8578BC1-A0EA-4618-AD6A-441265C82604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7378FFD6-0949-48C4-A0D4-0BDFB0F2E1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="12645" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -1072,21 +1072,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1106,7 +1106,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1115,7 +1115,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1124,7 +1124,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="42" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1159,7 +1159,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="31">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="31">
         <v>6</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="31">
         <v>7</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="31">
         <v>11</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="31">
         <v>12</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="31">
         <v>13</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="31">
         <v>14</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="31">
         <v>15</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="F20" s="39"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="31">
         <v>13</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1432,7 +1432,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1441,7 +1441,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1450,7 +1450,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -1525,7 +1525,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>